--- a/lhwms/media/excels/系统异常日志.xlsx
+++ b/lhwms/media/excels/系统异常日志.xlsx
@@ -1,56 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/程序员/python_project/lhwms/media/excels/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD2D8A4-03CA-4E48-A31B-BE7CFD9D54CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77DDFF"/>
+        <fgColor rgb="0077DDFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,27 +52,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -375,134 +351,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>产生路径</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>异常描述</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>产生时间</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>使用者</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2021-01-07T15:16:38</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>邓平</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>